--- a/Generation of Network and Broadcast Addresses.xlsx
+++ b/Generation of Network and Broadcast Addresses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All\ZhuoMian\TOP\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All\ZhuoMian\GitHub\Generation-of-Network-and-Broadcast-Addresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1B801E-A54F-434B-8BE6-0827AF8FD1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6003D0-564C-4FD4-B439-58E4A9162F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15280" xr2:uid="{764444DF-F527-4AA4-AD39-A34960A97D9D}"/>
   </bookViews>
@@ -1125,16 +1125,262 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1143,52 +1389,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1200,262 +1404,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1949,7 +1949,7 @@
   <dimension ref="B1:AR24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS8" sqref="AS8"/>
+      <selection activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1962,132 +1962,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="24.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
     </row>
     <row r="2" spans="2:44" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="21"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="103"/>
     </row>
     <row r="3" spans="2:44" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="36" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="125" t="s">
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="127"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="81"/>
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
@@ -2095,525 +2095,525 @@
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="18" t="s">
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="100" t="s">
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="22"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="104"/>
     </row>
     <row r="4" spans="2:44" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="28">
+      <c r="B4" s="65"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="76">
+        <v>172</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="76">
+        <v>16</v>
+      </c>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="76">
         <v>10</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="28">
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="76">
+        <v>1</v>
+      </c>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="76">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="104"/>
+    </row>
+    <row r="5" spans="2:44" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="65"/>
+      <c r="C5" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="98"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="104"/>
+    </row>
+    <row r="6" spans="2:44" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="65"/>
+      <c r="C6" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="67" t="str">
+        <f>G17&amp;"."&amp;O17&amp;"."&amp;W17&amp;"."&amp;AE17</f>
+        <v>255.255.0.0</v>
+      </c>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="67" t="str">
+        <f>G4&amp;"."&amp;L4&amp;"."&amp;Q4&amp;"."&amp;V4</f>
+        <v>172.16.10.1</v>
+      </c>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="67" t="str">
+        <f>G8</f>
+        <v>172.16.255.255</v>
+      </c>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="100"/>
+      <c r="AK6" s="100"/>
+      <c r="AL6" s="101"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="28">
-        <v>10</v>
-      </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="28">
-        <v>10</v>
-      </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="22"/>
-    </row>
-    <row r="5" spans="2:44" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="19"/>
-      <c r="C5" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="22"/>
-    </row>
-    <row r="6" spans="2:44" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="58" t="str">
-        <f>G17&amp;"."&amp;O17&amp;"."&amp;W17&amp;"."&amp;AE17</f>
-        <v>128.0.0.0</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58" t="str">
-        <f>G4&amp;"."&amp;L4&amp;"."&amp;Q4&amp;"."&amp;V4</f>
-        <v>10.10.10.10</v>
-      </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="58" t="str">
-        <f>G8</f>
-        <v>127.255.255.255</v>
-      </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="65"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="103"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="22"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="104"/>
     </row>
     <row r="7" spans="2:44" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="32" t="str">
         <f>G20&amp;"."&amp;O20&amp;"."&amp;W20&amp;"."&amp;AE20</f>
-        <v>0.0.0.0</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+        <v>172.16.0.0</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="33"/>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="32" t="str">
         <f>G20&amp;"."&amp;O20&amp;"."&amp;W20&amp;"."&amp;AE20+1&amp;"到"&amp;G23&amp;"."&amp;O23&amp;"."&amp;W23&amp;"."&amp;AE23-1</f>
-        <v>0.0.0.1到127.255.255.254</v>
-      </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
+        <v>172.16.0.1到172.16.255.254</v>
+      </c>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
       <c r="Y7" s="33"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="69"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="75"/>
       <c r="AC7" s="32" t="str">
         <f>G7</f>
-        <v>0.0.0.0</v>
-      </c>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
+        <v>172.16.0.0</v>
+      </c>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
       <c r="AH7" s="33"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="19" t="s">
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="22"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="104"/>
     </row>
     <row r="8" spans="2:44" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="77" t="str">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="40" t="str">
         <f>G23&amp;"."&amp;O23&amp;"."&amp;W23&amp;"."&amp;AE23</f>
-        <v>127.255.255.255</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="88" t="s">
+        <v>172.16.255.255</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="77" t="str">
-        <f>AE23-AE20-1&amp;"个"</f>
-        <v>254个</v>
-      </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="20" t="s">
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40" t="str">
+        <f>(AE23*W23)-AE20-1&amp;"个"</f>
+        <v>65024个</v>
+      </c>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="22"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="104"/>
     </row>
     <row r="9" spans="2:44" ht="25.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="22"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="104"/>
     </row>
     <row r="10" spans="2:44" ht="25.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="32" t="str">
         <f>DEC2BIN(G4,8)</f>
-        <v>00001010</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+        <v>10101100</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="33"/>
       <c r="L10" s="32" t="str">
         <f>DEC2BIN(L4,8)</f>
-        <v>00001010</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+        <v>00010000</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="32" t="str">
         <f>DEC2BIN(Q4,8)</f>
         <v>00001010</v>
       </c>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
       <c r="U10" s="33"/>
       <c r="V10" s="32" t="str">
         <f>DEC2BIN(V4,8)</f>
-        <v>00001010</v>
-      </c>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
+        <v>00000001</v>
+      </c>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
       <c r="Z10" s="33"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="98" t="s">
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="100"/>
-      <c r="AR10" s="22"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="104"/>
     </row>
     <row r="11" spans="2:44" ht="25.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="32" t="str">
         <f>BIN2HEX(G10,2)</f>
-        <v>0A</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+        <v>AC</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="33"/>
       <c r="L11" s="32" t="str">
         <f t="shared" ref="L11" si="0">BIN2HEX(L10,2)</f>
-        <v>0A</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="32" t="str">
         <f t="shared" ref="Q11" si="1">BIN2HEX(Q10,2)</f>
         <v>0A</v>
       </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
       <c r="U11" s="33"/>
       <c r="V11" s="32" t="str">
         <f t="shared" ref="V11" si="2">BIN2HEX(V10,2)</f>
-        <v>0A</v>
-      </c>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
+        <v>01</v>
+      </c>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
       <c r="Z11" s="33"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="101"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="103"/>
-      <c r="AR11" s="22"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="104"/>
     </row>
     <row r="12" spans="2:44" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="101"/>
-      <c r="AO12" s="102"/>
-      <c r="AP12" s="102"/>
-      <c r="AQ12" s="103"/>
-      <c r="AR12" s="22"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="104"/>
     </row>
     <row r="13" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="8" t="str">
         <f>MID($G$10,1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="8" t="str">
         <f>MID($G$10,2,1)</f>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="I13" s="8" t="str">
         <f>MID($G$10,3,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="8" t="str">
         <f>MID($G$10,4,1)</f>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="L13" s="8" t="str">
         <f>MID($G$10,6,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="8" t="str">
         <f>MID($G$10,7,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="8" t="str">
         <f>MID($G$10,8,1)</f>
@@ -2657,11 +2657,11 @@
       </c>
       <c r="R13" s="8" t="str">
         <f>MID($L$10,4,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="8" t="str">
         <f>MID($L$10,5,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="8" t="str">
         <f>MID($L$10,6,1)</f>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="U13" s="8" t="str">
         <f>MID($L$10,7,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="8" t="str">
         <f>MID($L$10,8,1)</f>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="AI13" s="8" t="str">
         <f>MID($V$10,5,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="8" t="str">
         <f>MID($V$10,6,1)</f>
@@ -2733,196 +2733,196 @@
       </c>
       <c r="AK13" s="8" t="str">
         <f>MID($V$10,7,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="2" t="str">
         <f>MID($V$10,8,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="101"/>
-      <c r="AO13" s="102"/>
-      <c r="AP13" s="102"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="104"/>
     </row>
     <row r="14" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="32">
         <f>BIN2DEC(G10)</f>
-        <v>10</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
+        <v>172</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="33"/>
       <c r="O14" s="32">
         <f>BIN2DEC(L10)</f>
-        <v>10</v>
-      </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
       <c r="V14" s="33"/>
       <c r="W14" s="32">
         <f>BIN2DEC(Q10)</f>
         <v>10</v>
       </c>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
       <c r="AD14" s="33"/>
       <c r="AE14" s="32">
         <f>BIN2DEC(V10)</f>
-        <v>10</v>
-      </c>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
+        <v>1</v>
+      </c>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
       <c r="AL14" s="33"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="104" t="s">
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="105"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="22"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="104"/>
     </row>
     <row r="15" spans="2:44" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="98" t="s">
+      <c r="B15" s="65"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="100"/>
-      <c r="AR15" s="22"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="104"/>
     </row>
     <row r="16" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="70" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="8">
         <f>IF($AA$4&gt;=1,1,0)</f>
         <v>1</v>
       </c>
       <c r="H16" s="8">
         <f>IF($AA$4&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="8">
         <f>IF($AA$4&gt;=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="8">
         <f>IF($AA$4&gt;=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="8">
         <f>IF($AA$4&gt;=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="8">
         <f>IF($AA$4&gt;=6,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="8">
         <f>IF($AA$4&gt;=7,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="8">
         <f>IF($AA$4&gt;=8,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="8">
         <f>IF($AA$4&gt;=9,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="8">
         <f>IF($AA$4&gt;=10,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="8">
         <f>IF($AA$4&gt;=11,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="8">
         <f>IF($AA$4&gt;=12,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="8">
         <f>IF($AA$4&gt;=13,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="8">
         <f>IF($AA$4&gt;=14,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="8">
         <f>IF($AA$4&gt;=15,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="8">
         <f>IF($AA$4&gt;=16,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="8">
         <f>IF($AA$4&gt;=17,1,0)</f>
@@ -2988,130 +2988,130 @@
         <f>IF($AA$4&gt;=32,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="101"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="22"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="104"/>
     </row>
     <row r="17" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="32">
         <f>N16*1+M16*2+L16*4+K16*8+J16*16+I16*32+H16*64+G16*128</f>
-        <v>128</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+        <v>255</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
       <c r="N17" s="33"/>
       <c r="O17" s="32">
         <f t="shared" ref="O17" si="3">V16*1+U16*2+T16*4+S16*8+R16*16+Q16*32+P16*64+O16*128</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
+        <v>255</v>
+      </c>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
       <c r="V17" s="33"/>
       <c r="W17" s="32">
         <f t="shared" ref="W17" si="4">AD16*1+AC16*2+AB16*4+AA16*8+Z16*16+Y16*32+X16*64+W16*128</f>
         <v>0</v>
       </c>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
       <c r="AD17" s="33"/>
       <c r="AE17" s="32">
         <f>AL16*1+AK16*2+AJ16*4+AI16*8+AH16*16+AG16*32+AF16*64+AE16*128</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="104" t="s">
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AO17" s="105"/>
-      <c r="AP17" s="105"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="22"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="104"/>
     </row>
     <row r="18" spans="2:44" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="80"/>
-      <c r="AJ18" s="80"/>
-      <c r="AK18" s="80"/>
-      <c r="AL18" s="81"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="98" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="99"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="22"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="104"/>
     </row>
     <row r="19" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="70" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="8">
         <f>IF(G13+G16=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" ref="H19:AD19" si="5">IF(H13+H16=2,1,0)</f>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="I19" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" si="5"/>
@@ -3127,11 +3127,11 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="5"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="R19" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="5"/>
@@ -3237,134 +3237,134 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="101"/>
-      <c r="AO19" s="102"/>
-      <c r="AP19" s="102"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="22"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="104"/>
     </row>
     <row r="20" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="32">
         <f>N19*1+M19*2+L19*4+K19*8+J19*16+I19*32+H19*64+G19*128</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
+        <v>172</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
       <c r="N20" s="33"/>
       <c r="O20" s="32">
         <f>V19*1+U19*2+T19*4+S19*8+R19*16+Q19*32+P19*64+O19*128</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
       <c r="V20" s="33"/>
       <c r="W20" s="32">
         <f>AD19*1+AC19*2+AB19*4+AA19*8+Z19*16+Y19*32+X19*64+W19*128</f>
         <v>0</v>
       </c>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
       <c r="AD20" s="33"/>
       <c r="AE20" s="32">
         <f>AL19*1+AK19*2+AJ19*4+AI19*8+AH19*16+AG19*32+AF19*64+AE19*128</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="104" t="s">
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AO20" s="105"/>
-      <c r="AP20" s="105"/>
-      <c r="AQ20" s="106"/>
-      <c r="AR20" s="22"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="104"/>
     </row>
     <row r="21" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="98" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AO21" s="99"/>
-      <c r="AP21" s="99"/>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="22"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="104"/>
     </row>
     <row r="22" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="70" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="8">
         <f>IF($AA$4&gt;=1,G19,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="8">
         <f>IF($AA$4&gt;=2,H19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="8">
         <f>IF($AA$4&gt;=3,I19,1)</f>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="J22" s="8">
         <f>IF($AA$4&gt;=4,J19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="8">
         <f>IF($AA$4&gt;=5,K19,1)</f>
@@ -3384,23 +3384,23 @@
       </c>
       <c r="M22" s="8">
         <f>IF($AA$4&gt;=7,M19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="8">
         <f>IF($AA$4&gt;=8,N19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="8">
         <f>IF($AA$4&gt;=9,O19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="8">
         <f>IF($AA$4&gt;=10,P19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="8">
         <f>IF($AA$4&gt;=11,Q19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="8">
         <f>IF($AA$4&gt;=12,R19,1)</f>
@@ -3408,19 +3408,19 @@
       </c>
       <c r="S22" s="8">
         <f>IF($AA$4&gt;=13,S19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="8">
         <f>IF($AA$4&gt;=14,T19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="8">
         <f>IF($AA$4&gt;=15,U19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="8">
         <f>IF($AA$4&gt;=16,V19,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="8">
         <f>IF($AA$4&gt;=17,W19,1)</f>
@@ -3486,117 +3486,189 @@
         <f>IF($AA$4&gt;=32,AL19,1)</f>
         <v>1</v>
       </c>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="101"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="102"/>
-      <c r="AQ22" s="103"/>
-      <c r="AR22" s="22"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="104"/>
     </row>
     <row r="23" spans="2:44" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="19"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="77">
+      <c r="B23" s="65"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="40">
         <f>N22*1+M22*2+L22*4+K22*8+J22*16+I22*32+H22*64+G22*128</f>
-        <v>127</v>
-      </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="77">
+        <v>172</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="40">
         <f>V22*1+U22*2+T22*4+S22*8+R22*16+Q22*32+P22*64+O22*128</f>
-        <v>255</v>
-      </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="77">
+        <v>16</v>
+      </c>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="40">
         <f>AD22*1+AC22*2+AB22*4+AA22*8+Z22*16+Y22*32+X22*64+W22*128</f>
         <v>255</v>
       </c>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="77">
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="40">
         <f>AL22*1+AK22*2+AJ22*4+AI22*8+AH22*16+AG22*32+AF22*64+AE22*128</f>
         <v>255</v>
       </c>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="104"/>
-      <c r="AO23" s="105"/>
-      <c r="AP23" s="105"/>
-      <c r="AQ23" s="106"/>
-      <c r="AR23" s="22"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="104"/>
     </row>
     <row r="24" spans="2:44" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="23"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="68"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="68"/>
+      <c r="AK24" s="68"/>
+      <c r="AL24" s="68"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="B1:AR1"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="AR2:AR24"/>
+    <mergeCell ref="AQ2:AQ9"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AM2:AM24"/>
+    <mergeCell ref="C2:AL2"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="C24:AL24"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="AA10:AL11"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P7:Y7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="C5:AL5"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AC6:AH6"/>
+    <mergeCell ref="AC7:AH7"/>
+    <mergeCell ref="AI6:AL7"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="P6:Y6"/>
+    <mergeCell ref="Z6:AB7"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="G3:Z3"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="C18:AL18"/>
+    <mergeCell ref="AE17:AL17"/>
+    <mergeCell ref="W17:AD17"/>
+    <mergeCell ref="O17:V17"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="C21:AL21"/>
+    <mergeCell ref="W20:AD20"/>
+    <mergeCell ref="O20:V20"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="AE20:AL20"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="AE23:AL23"/>
+    <mergeCell ref="W23:AD23"/>
+    <mergeCell ref="O23:V23"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="AC8:AL8"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="C9:AL9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C12:AL12"/>
     <mergeCell ref="AN21:AQ23"/>
     <mergeCell ref="AP3:AP7"/>
@@ -3613,78 +3685,6 @@
     <mergeCell ref="G14:N14"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:Y8"/>
-    <mergeCell ref="AC8:AL8"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="C9:AL9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="AE20:AL20"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="AE23:AL23"/>
-    <mergeCell ref="W23:AD23"/>
-    <mergeCell ref="O23:V23"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="C18:AL18"/>
-    <mergeCell ref="AE17:AL17"/>
-    <mergeCell ref="W17:AD17"/>
-    <mergeCell ref="O17:V17"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="C22:F23"/>
-    <mergeCell ref="C21:AL21"/>
-    <mergeCell ref="W20:AD20"/>
-    <mergeCell ref="O20:V20"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="P6:Y6"/>
-    <mergeCell ref="Z6:AB7"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="G3:Z3"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P7:Y7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="C5:AL5"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AC6:AH6"/>
-    <mergeCell ref="AC7:AH7"/>
-    <mergeCell ref="AI6:AL7"/>
-    <mergeCell ref="B1:AR1"/>
-    <mergeCell ref="B2:B24"/>
-    <mergeCell ref="AR2:AR24"/>
-    <mergeCell ref="AQ2:AQ9"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AM2:AM24"/>
-    <mergeCell ref="C2:AL2"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="C24:AL24"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="AA10:AL11"/>
-    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13:AL13 G16:AL16 G19:AL19 G22:AL22">
@@ -3724,138 +3724,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="24.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
     </row>
     <row r="2" spans="2:44" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="21"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="103"/>
     </row>
     <row r="3" spans="2:44" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="36" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="36" t="s">
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="36" t="s">
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="38"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="84"/>
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
@@ -3863,522 +3863,522 @@
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="18" t="s">
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="100" t="s">
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="22"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="104"/>
     </row>
     <row r="4" spans="2:44" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="28">
+      <c r="B4" s="65"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="76">
         <v>10</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="28">
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="76">
         <v>10</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="28">
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="76">
         <v>10</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="28">
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="76">
         <v>10</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="19" t="s">
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="22"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="104"/>
     </row>
     <row r="5" spans="2:44" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="19"/>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="19" t="s">
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="98"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="22"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="104"/>
     </row>
     <row r="6" spans="2:44" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="58" t="str">
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="67" t="str">
         <f>G17&amp;"."&amp;O17&amp;"."&amp;W17&amp;"."&amp;AE17</f>
         <v>128.0.0.0</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="55" t="s">
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58" t="str">
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="67" t="str">
         <f>G4&amp;"."&amp;L4&amp;"."&amp;Q4&amp;"."&amp;V4</f>
         <v>10.10.10.10</v>
       </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="66" t="s">
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="58" t="str">
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="67" t="str">
         <f>G8</f>
         <v>127.255.255.255</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="65"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="19" t="s">
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="100"/>
+      <c r="AK6" s="100"/>
+      <c r="AL6" s="101"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="103"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="22"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="104"/>
     </row>
     <row r="7" spans="2:44" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="32" t="str">
         <f>G20&amp;"."&amp;O20&amp;"."&amp;W20&amp;"."&amp;AE20</f>
         <v>0.0.0.0</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="33"/>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="32" t="str">
         <f>G20&amp;"."&amp;O20&amp;"."&amp;W20&amp;"."&amp;AE20+1&amp;"到"&amp;G23&amp;"."&amp;O23&amp;"."&amp;W23&amp;"."&amp;AE23-1</f>
         <v>0.0.0.1到127.255.255.254</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
       <c r="Y7" s="33"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="69"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="75"/>
       <c r="AC7" s="32" t="str">
         <f>G7</f>
         <v>0.0.0.0</v>
       </c>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
       <c r="AH7" s="33"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="19" t="s">
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="22"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="104"/>
     </row>
     <row r="8" spans="2:44" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="77" t="str">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="40" t="str">
         <f>G23&amp;"."&amp;O23&amp;"."&amp;W23&amp;"."&amp;AE23</f>
         <v>127.255.255.255</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="88" t="s">
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="77" t="str">
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40" t="str">
         <f>AE23-AE20-1&amp;"个"</f>
         <v>254个</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="20" t="s">
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="22"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="104"/>
     </row>
     <row r="9" spans="2:44" ht="25.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="22"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="104"/>
     </row>
     <row r="10" spans="2:44" ht="25.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="32" t="str">
         <f>DEC2BIN(G4,8)</f>
         <v>00001010</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="33"/>
       <c r="L10" s="32" t="str">
         <f>DEC2BIN(L4,8)</f>
         <v>00001010</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="32" t="str">
         <f>DEC2BIN(Q4,8)</f>
         <v>00001010</v>
       </c>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
       <c r="U10" s="33"/>
       <c r="V10" s="32" t="str">
         <f>DEC2BIN(V4,8)</f>
         <v>00001010</v>
       </c>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
       <c r="Z10" s="33"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="98" t="s">
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="100"/>
-      <c r="AR10" s="22"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="104"/>
     </row>
     <row r="11" spans="2:44" ht="25.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="32" t="str">
         <f>BIN2HEX(G10,2)</f>
         <v>0A</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="33"/>
       <c r="L11" s="32" t="str">
         <f t="shared" ref="L11" si="0">BIN2HEX(L10,2)</f>
         <v>0A</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="32" t="str">
         <f t="shared" ref="Q11" si="1">BIN2HEX(Q10,2)</f>
         <v>0A</v>
       </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
       <c r="U11" s="33"/>
       <c r="V11" s="32" t="str">
         <f t="shared" ref="V11" si="2">BIN2HEX(V10,2)</f>
         <v>0A</v>
       </c>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
       <c r="Z11" s="33"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="101"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="103"/>
-      <c r="AR11" s="22"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="104"/>
     </row>
     <row r="12" spans="2:44" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="101"/>
-      <c r="AO12" s="102"/>
-      <c r="AP12" s="102"/>
-      <c r="AQ12" s="103"/>
-      <c r="AR12" s="22"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="104"/>
     </row>
     <row r="13" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="8" t="str">
         <f>MID($G$10,1,1)</f>
         <v>0</v>
@@ -4507,127 +4507,127 @@
         <f>MID($V$10,8,1)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="101"/>
-      <c r="AO13" s="102"/>
-      <c r="AP13" s="102"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="22"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="104"/>
     </row>
     <row r="14" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="32">
         <f>BIN2DEC(G10)</f>
         <v>10</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="33"/>
       <c r="O14" s="32">
         <f>BIN2DEC(L10)</f>
         <v>10</v>
       </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
       <c r="V14" s="33"/>
       <c r="W14" s="32">
         <f>BIN2DEC(Q10)</f>
         <v>10</v>
       </c>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
       <c r="AD14" s="33"/>
       <c r="AE14" s="32">
         <f>BIN2DEC(V10)</f>
         <v>10</v>
       </c>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
       <c r="AL14" s="33"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="104" t="s">
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="105"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="22"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="104"/>
     </row>
     <row r="15" spans="2:44" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="98" t="s">
+      <c r="B15" s="65"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="100"/>
-      <c r="AR15" s="22"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="104"/>
     </row>
     <row r="16" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="70" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="8">
         <f>IF($AA$4&gt;=1,1,0)</f>
         <v>1</v>
@@ -4756,127 +4756,127 @@
         <f>IF($AA$4&gt;=32,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="101"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="22"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="104"/>
     </row>
     <row r="17" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="32">
         <f>N16*1+M16*2+L16*4+K16*8+J16*16+I16*32+H16*64+G16*128</f>
         <v>128</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
       <c r="N17" s="33"/>
       <c r="O17" s="32">
         <f t="shared" ref="O17" si="3">V16*1+U16*2+T16*4+S16*8+R16*16+Q16*32+P16*64+O16*128</f>
         <v>0</v>
       </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
       <c r="V17" s="33"/>
       <c r="W17" s="32">
         <f t="shared" ref="W17" si="4">AD16*1+AC16*2+AB16*4+AA16*8+Z16*16+Y16*32+X16*64+W16*128</f>
         <v>0</v>
       </c>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
       <c r="AD17" s="33"/>
       <c r="AE17" s="32">
         <f>AL16*1+AK16*2+AJ16*4+AI16*8+AH16*16+AG16*32+AF16*64+AE16*128</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="104" t="s">
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AO17" s="105"/>
-      <c r="AP17" s="105"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="22"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="104"/>
     </row>
     <row r="18" spans="2:44" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="80"/>
-      <c r="AJ18" s="80"/>
-      <c r="AK18" s="80"/>
-      <c r="AL18" s="81"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="98" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="99"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="22"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="104"/>
     </row>
     <row r="19" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="70" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="8">
         <f>IF(G13+G16=2,1,0)</f>
         <v>0</v>
@@ -5005,127 +5005,127 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="101"/>
-      <c r="AO19" s="102"/>
-      <c r="AP19" s="102"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="22"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="104"/>
     </row>
     <row r="20" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="32">
         <f>N19*1+M19*2+L19*4+K19*8+J19*16+I19*32+H19*64+G19*128</f>
         <v>0</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
       <c r="N20" s="33"/>
       <c r="O20" s="32">
         <f>V19*1+U19*2+T19*4+S19*8+R19*16+Q19*32+P19*64+O19*128</f>
         <v>0</v>
       </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
       <c r="V20" s="33"/>
       <c r="W20" s="32">
         <f>AD19*1+AC19*2+AB19*4+AA19*8+Z19*16+Y19*32+X19*64+W19*128</f>
         <v>0</v>
       </c>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
       <c r="AD20" s="33"/>
       <c r="AE20" s="32">
         <f>AL19*1+AK19*2+AJ19*4+AI19*8+AH19*16+AG19*32+AF19*64+AE19*128</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="104" t="s">
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AO20" s="105"/>
-      <c r="AP20" s="105"/>
-      <c r="AQ20" s="106"/>
-      <c r="AR20" s="22"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="104"/>
     </row>
     <row r="21" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="98" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AO21" s="99"/>
-      <c r="AP21" s="99"/>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="22"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="104"/>
     </row>
     <row r="22" spans="2:44" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="70" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="8">
         <f>IF($AA$4&gt;=1,G19,1)</f>
         <v>0</v>
@@ -5254,154 +5254,155 @@
         <f>IF($AA$4&gt;=32,AL19,1)</f>
         <v>1</v>
       </c>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="101"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="102"/>
-      <c r="AQ22" s="103"/>
-      <c r="AR22" s="22"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="104"/>
     </row>
     <row r="23" spans="2:44" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="19"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="77">
+      <c r="B23" s="65"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="40">
         <f>N22*1+M22*2+L22*4+K22*8+J22*16+I22*32+H22*64+G22*128</f>
         <v>127</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="77">
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="40">
         <f>V22*1+U22*2+T22*4+S22*8+R22*16+Q22*32+P22*64+O22*128</f>
         <v>255</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="77">
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="40">
         <f>AD22*1+AC22*2+AB22*4+AA22*8+Z22*16+Y22*32+X22*64+W22*128</f>
         <v>255</v>
       </c>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="77">
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="40">
         <f>AL22*1+AK22*2+AJ22*4+AI22*8+AH22*16+AG22*32+AF22*64+AE22*128</f>
         <v>255</v>
       </c>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="104"/>
-      <c r="AO23" s="105"/>
-      <c r="AP23" s="105"/>
-      <c r="AQ23" s="106"/>
-      <c r="AR23" s="22"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="104"/>
     </row>
     <row r="24" spans="2:44" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="23"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="68"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="68"/>
+      <c r="AK24" s="68"/>
+      <c r="AL24" s="68"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="C24:AL24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="C21:AL21"/>
-    <mergeCell ref="AN21:AQ23"/>
-    <mergeCell ref="C22:F23"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="O23:V23"/>
-    <mergeCell ref="W23:AD23"/>
-    <mergeCell ref="AE23:AL23"/>
-    <mergeCell ref="C18:AL18"/>
-    <mergeCell ref="AN18:AQ19"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="O20:V20"/>
-    <mergeCell ref="W20:AD20"/>
-    <mergeCell ref="AE20:AL20"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="C15:AL15"/>
-    <mergeCell ref="AN15:AQ16"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="O17:V17"/>
-    <mergeCell ref="W17:AD17"/>
-    <mergeCell ref="AE17:AL17"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="O14:V14"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="AE14:AL14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="C12:AL12"/>
+    <mergeCell ref="B1:AR1"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="C2:AL2"/>
+    <mergeCell ref="AM2:AM24"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AQ2:AQ9"/>
+    <mergeCell ref="AR2:AR24"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AP7"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="C5:AL5"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:Y6"/>
+    <mergeCell ref="Z6:AB7"/>
+    <mergeCell ref="AC6:AH6"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="AI6:AL7"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:Y7"/>
+    <mergeCell ref="AC7:AH7"/>
+    <mergeCell ref="AN7:AO7"/>
     <mergeCell ref="AN8:AP8"/>
     <mergeCell ref="C9:AL9"/>
     <mergeCell ref="AN9:AP9"/>
@@ -5418,57 +5419,56 @@
     <mergeCell ref="P8:Y8"/>
     <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC8:AL8"/>
-    <mergeCell ref="AI6:AL7"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:Y7"/>
-    <mergeCell ref="AC7:AH7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="C5:AL5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:Y6"/>
-    <mergeCell ref="Z6:AB7"/>
-    <mergeCell ref="AC6:AH6"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AP7"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="B1:AR1"/>
-    <mergeCell ref="B2:B24"/>
-    <mergeCell ref="C2:AL2"/>
-    <mergeCell ref="AM2:AM24"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AQ2:AQ9"/>
-    <mergeCell ref="AR2:AR24"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="C12:AL12"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="O14:V14"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="AE14:AL14"/>
+    <mergeCell ref="C15:AL15"/>
+    <mergeCell ref="AN15:AQ16"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="O17:V17"/>
+    <mergeCell ref="W17:AD17"/>
+    <mergeCell ref="AE17:AL17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="C18:AL18"/>
+    <mergeCell ref="AN18:AQ19"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="O20:V20"/>
+    <mergeCell ref="W20:AD20"/>
+    <mergeCell ref="AE20:AL20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="C24:AL24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="C21:AL21"/>
+    <mergeCell ref="AN21:AQ23"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="O23:V23"/>
+    <mergeCell ref="W23:AD23"/>
+    <mergeCell ref="AE23:AL23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13:AL13 G16:AL16 G19:AL19 G22:AL22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5495,13 +5495,13 @@
   <sheetData>
     <row r="1" spans="2:40" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:40" ht="23.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="114"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="11">
         <f>IF(D7&gt;=1,1,0)</f>
         <v>1</v>
@@ -5632,74 +5632,74 @@
       </c>
     </row>
     <row r="3" spans="2:40" ht="23.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="111"/>
-      <c r="C3" s="74" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="86">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="29">
         <f>P2*1+O2*2+N2*4+M2*8+L2*16+K2*32+J2*64+I2*128</f>
         <v>255</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="32">
         <f t="shared" ref="Q3" si="0">X2*1+W2*2+V2*4+U2*8+T2*16+S2*32+R2*64+Q2*128</f>
         <v>255</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="32">
         <f t="shared" ref="Y3" si="1">AF2*1+AE2*2+AD2*4+AC2*8+AB2*16+AA2*32+Z2*64+Y2*128</f>
         <v>255</v>
       </c>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
       <c r="AF3" s="33"/>
       <c r="AG3" s="32">
         <f>AN2*1+AM2*2+AL2*4+AK2*8+AJ2*16+AI2*32+AH2*64+AG2*128</f>
         <v>240</v>
       </c>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
       <c r="AN3" s="33"/>
     </row>
     <row r="4" spans="2:40" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="111"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="12">
         <v>14</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="112"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -5734,7 +5734,7 @@
       <c r="AN4" s="13"/>
     </row>
     <row r="5" spans="2:40" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="111"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="8" t="s">
         <v>48</v>
       </c>
@@ -5742,15 +5742,15 @@
         <f>D4+2</f>
         <v>16</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="116"/>
     </row>
     <row r="6" spans="2:40" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="111"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
@@ -5758,29 +5758,29 @@
         <f>IF(D5&lt;=2,2,IF(D5&lt;=4,4,IF(D5&lt;=8,8,IF(D5&lt;=16,16,IF(D5&lt;=32,32,IF(D5&lt;=64,64,IF(D5&lt;=128,128,IF(D5&lt;=256,256))))))))</f>
         <v>16</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="112"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="116"/>
     </row>
     <row r="7" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="111"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="108">
+      <c r="D7" s="112">
         <f>IF(D6&lt;=2,31,IF(D6&lt;=4,30,IF(D6&lt;=8,29,IF(D6&lt;=16,28,IF(D6&lt;=32,27,IF(D6&lt;=64,26,IF(D6&lt;=128,25,IF(D6&lt;=256,24))))))))</f>
         <v>28</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="116"/>
     </row>
     <row r="8" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="111"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="14" t="s">
         <v>52</v>
       </c>
@@ -5800,36 +5800,31 @@
         <f>AG3</f>
         <v>240</v>
       </c>
-      <c r="H8" s="112"/>
+      <c r="H8" s="116"/>
     </row>
     <row r="9" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111"/>
-      <c r="C9" s="113" t="str">
+      <c r="B9" s="115"/>
+      <c r="C9" s="117" t="str">
         <f>IF(D4&gt;=255,"！超出254个主机，需要另建子网！","未超出254个主机，无需另建子网")</f>
         <v>未超出254个主机，无需另建子网</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="112"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="116"/>
     </row>
     <row r="10" spans="2:40" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="107"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="Q3:X3"/>
-    <mergeCell ref="Y3:AF3"/>
     <mergeCell ref="AG3:AN3"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="D7:G7"/>
@@ -5839,19 +5834,24 @@
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="H3:H9"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="Q3:X3"/>
+    <mergeCell ref="Y3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I2:AN2">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5878,41 +5878,41 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="118" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="115"/>
+      <c r="E2" s="121"/>
     </row>
     <row r="3" spans="2:5" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="122"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="116"/>
+      <c r="E3" s="123"/>
     </row>
     <row r="4" spans="2:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="118" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="121"/>
     </row>
     <row r="5" spans="2:5" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="122"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
@@ -5924,52 +5924,47 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="119">
+      <c r="C6" s="124">
         <v>111111111111111</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="120">
         <v>11111111</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="121" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="122"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
     </row>
     <row r="8" spans="2:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="121" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="122"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="116"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
@@ -5978,6 +5973,11 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
